--- a/importdaten/wasserfliegen_2012.xlsx
+++ b/importdaten/wasserfliegen_2012.xlsx
@@ -5545,7 +5545,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5637,6 +5637,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6327,9 +6336,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N464" sqref="N464"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -6342,7 +6351,7 @@
     <col min="7" max="7" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.77734375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" style="38" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="44.33203125" customWidth="1"/>
     <col min="17" max="17" width="36.109375" customWidth="1"/>
@@ -6389,7 +6398,7 @@
       <c r="M1" s="33" t="s">
         <v>1726</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="36" t="s">
         <v>1727</v>
       </c>
       <c r="O1" s="33" t="s">
@@ -6443,7 +6452,7 @@
       <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="28" t="str">
+      <c r="N2" s="37" t="str">
         <f>VLOOKUP(M2,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -6498,7 +6507,7 @@
       <c r="M3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="28" t="str">
+      <c r="N3" s="37" t="str">
         <f>VLOOKUP(M3,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -6547,7 +6556,7 @@
       <c r="M4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="28" t="str">
+      <c r="N4" s="37" t="str">
         <f>VLOOKUP(M4,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -6602,7 +6611,7 @@
       <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="28" t="str">
+      <c r="N5" s="37" t="str">
         <f>VLOOKUP(M5,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -6651,7 +6660,7 @@
       <c r="M6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="28" t="str">
+      <c r="N6" s="37" t="str">
         <f>VLOOKUP(M6,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -6700,7 +6709,7 @@
       <c r="M7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="28" t="str">
+      <c r="N7" s="37" t="str">
         <f>VLOOKUP(M7,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -6749,7 +6758,7 @@
       <c r="M8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="28" t="str">
+      <c r="N8" s="37" t="str">
         <f>VLOOKUP(M8,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -6798,7 +6807,7 @@
       <c r="M9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="28" t="str">
+      <c r="N9" s="37" t="str">
         <f>VLOOKUP(M9,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -6847,7 +6856,7 @@
       <c r="M10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="28" t="str">
+      <c r="N10" s="37" t="str">
         <f>VLOOKUP(M10,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -6896,7 +6905,7 @@
       <c r="M11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="28" t="str">
+      <c r="N11" s="37" t="str">
         <f>VLOOKUP(M11,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -6951,7 +6960,7 @@
       <c r="M12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="28" t="str">
+      <c r="N12" s="37" t="str">
         <f>VLOOKUP(M12,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -7006,7 +7015,7 @@
       <c r="M13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="28" t="str">
+      <c r="N13" s="37" t="str">
         <f>VLOOKUP(M13,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -7055,7 +7064,7 @@
       <c r="M14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="28" t="str">
+      <c r="N14" s="37" t="str">
         <f>VLOOKUP(M14,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -7104,7 +7113,7 @@
       <c r="M15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="28" t="str">
+      <c r="N15" s="37" t="str">
         <f>VLOOKUP(M15,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -7153,7 +7162,7 @@
       <c r="M16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="28" t="str">
+      <c r="N16" s="37" t="str">
         <f>VLOOKUP(M16,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -7202,7 +7211,7 @@
       <c r="M17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="28" t="str">
+      <c r="N17" s="37" t="str">
         <f>VLOOKUP(M17,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -7251,7 +7260,7 @@
       <c r="M18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="28" t="str">
+      <c r="N18" s="37" t="str">
         <f>VLOOKUP(M18,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -7300,7 +7309,7 @@
       <c r="M19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="28" t="str">
+      <c r="N19" s="37" t="str">
         <f>VLOOKUP(M19,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -7349,7 +7358,7 @@
       <c r="M20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="28" t="str">
+      <c r="N20" s="37" t="str">
         <f>VLOOKUP(M20,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -7398,7 +7407,7 @@
       <c r="M21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="28" t="str">
+      <c r="N21" s="37" t="str">
         <f>VLOOKUP(M21,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -7447,7 +7456,7 @@
       <c r="M22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="28" t="str">
+      <c r="N22" s="37" t="str">
         <f>VLOOKUP(M22,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -7502,7 +7511,7 @@
       <c r="M23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="28" t="str">
+      <c r="N23" s="37" t="str">
         <f>VLOOKUP(M23,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -7551,7 +7560,7 @@
       <c r="M24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="28" t="str">
+      <c r="N24" s="37" t="str">
         <f>VLOOKUP(M24,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -7600,7 +7609,7 @@
       <c r="M25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N25" s="28" t="str">
+      <c r="N25" s="37" t="str">
         <f>VLOOKUP(M25,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -7649,7 +7658,7 @@
       <c r="M26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="28" t="str">
+      <c r="N26" s="37" t="str">
         <f>VLOOKUP(M26,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -7698,7 +7707,7 @@
       <c r="M27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="28" t="str">
+      <c r="N27" s="37" t="str">
         <f>VLOOKUP(M27,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -7747,7 +7756,7 @@
       <c r="M28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N28" s="28" t="str">
+      <c r="N28" s="37" t="str">
         <f>VLOOKUP(M28,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -7796,7 +7805,7 @@
       <c r="M29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="28" t="str">
+      <c r="N29" s="37" t="str">
         <f>VLOOKUP(M29,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -7845,7 +7854,7 @@
       <c r="M30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="28" t="str">
+      <c r="N30" s="37" t="str">
         <f>VLOOKUP(M30,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -7894,7 +7903,7 @@
       <c r="M31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="28" t="str">
+      <c r="N31" s="37" t="str">
         <f>VLOOKUP(M31,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -7943,7 +7952,7 @@
       <c r="M32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="28" t="str">
+      <c r="N32" s="37" t="str">
         <f>VLOOKUP(M32,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -7998,7 +8007,7 @@
       <c r="M33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="28" t="str">
+      <c r="N33" s="37" t="str">
         <f>VLOOKUP(M33,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -8053,7 +8062,7 @@
       <c r="M34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N34" s="28" t="str">
+      <c r="N34" s="37" t="str">
         <f>VLOOKUP(M34,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -8102,7 +8111,7 @@
       <c r="M35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N35" s="28" t="str">
+      <c r="N35" s="37" t="str">
         <f>VLOOKUP(M35,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -8151,7 +8160,7 @@
       <c r="M36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N36" s="28" t="str">
+      <c r="N36" s="37" t="str">
         <f>VLOOKUP(M36,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -8200,7 +8209,7 @@
       <c r="M37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N37" s="28" t="str">
+      <c r="N37" s="37" t="str">
         <f>VLOOKUP(M37,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -8249,7 +8258,7 @@
       <c r="M38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N38" s="28" t="str">
+      <c r="N38" s="37" t="str">
         <f>VLOOKUP(M38,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -8298,7 +8307,7 @@
       <c r="M39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N39" s="28" t="str">
+      <c r="N39" s="37" t="str">
         <f>VLOOKUP(M39,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -8347,7 +8356,7 @@
       <c r="M40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N40" s="28" t="str">
+      <c r="N40" s="37" t="str">
         <f>VLOOKUP(M40,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -8396,7 +8405,7 @@
       <c r="M41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N41" s="28" t="str">
+      <c r="N41" s="37" t="str">
         <f>VLOOKUP(M41,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -8445,7 +8454,7 @@
       <c r="M42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="28" t="str">
+      <c r="N42" s="37" t="str">
         <f>VLOOKUP(M42,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -8494,7 +8503,7 @@
       <c r="M43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="28" t="str">
+      <c r="N43" s="37" t="str">
         <f>VLOOKUP(M43,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -8543,7 +8552,7 @@
       <c r="M44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="28" t="str">
+      <c r="N44" s="37" t="str">
         <f>VLOOKUP(M44,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -8592,7 +8601,7 @@
       <c r="M45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="28" t="str">
+      <c r="N45" s="37" t="str">
         <f>VLOOKUP(M45,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -8641,7 +8650,7 @@
       <c r="M46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N46" s="28" t="str">
+      <c r="N46" s="37" t="str">
         <f>VLOOKUP(M46,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -8690,7 +8699,7 @@
       <c r="M47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="28" t="str">
+      <c r="N47" s="37" t="str">
         <f>VLOOKUP(M47,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -8739,7 +8748,7 @@
       <c r="M48" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N48" s="28" t="str">
+      <c r="N48" s="37" t="str">
         <f>VLOOKUP(M48,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -8794,7 +8803,7 @@
       <c r="M49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="28" t="str">
+      <c r="N49" s="37" t="str">
         <f>VLOOKUP(M49,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -8843,7 +8852,7 @@
       <c r="M50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N50" s="28" t="str">
+      <c r="N50" s="37" t="str">
         <f>VLOOKUP(M50,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -8892,7 +8901,7 @@
       <c r="M51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="28" t="str">
+      <c r="N51" s="37" t="str">
         <f>VLOOKUP(M51,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -8947,7 +8956,7 @@
       <c r="M52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="28" t="str">
+      <c r="N52" s="37" t="str">
         <f>VLOOKUP(M52,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -9002,7 +9011,7 @@
       <c r="M53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N53" s="28" t="str">
+      <c r="N53" s="37" t="str">
         <f>VLOOKUP(M53,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -9051,7 +9060,7 @@
       <c r="M54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N54" s="28" t="str">
+      <c r="N54" s="37" t="str">
         <f>VLOOKUP(M54,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -9106,7 +9115,7 @@
       <c r="M55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N55" s="28" t="str">
+      <c r="N55" s="37" t="str">
         <f>VLOOKUP(M55,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -9161,7 +9170,7 @@
       <c r="M56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N56" s="28" t="str">
+      <c r="N56" s="37" t="str">
         <f>VLOOKUP(M56,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -9210,7 +9219,7 @@
       <c r="M57" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N57" s="28" t="str">
+      <c r="N57" s="37" t="str">
         <f>VLOOKUP(M57,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -9259,7 +9268,7 @@
       <c r="M58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="28" t="str">
+      <c r="N58" s="37" t="str">
         <f>VLOOKUP(M58,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -9308,7 +9317,7 @@
       <c r="M59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="28" t="str">
+      <c r="N59" s="37" t="str">
         <f>VLOOKUP(M59,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -9363,7 +9372,7 @@
       <c r="M60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="28" t="str">
+      <c r="N60" s="37" t="str">
         <f>VLOOKUP(M60,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -9418,7 +9427,7 @@
       <c r="M61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N61" s="28" t="str">
+      <c r="N61" s="37" t="str">
         <f>VLOOKUP(M61,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -9473,7 +9482,7 @@
       <c r="M62" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N62" s="28" t="str">
+      <c r="N62" s="37" t="str">
         <f>VLOOKUP(M62,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht beurteilt</v>
       </c>
@@ -9522,7 +9531,7 @@
       <c r="M63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N63" s="28" t="str">
+      <c r="N63" s="37" t="str">
         <f>VLOOKUP(M63,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -9571,7 +9580,7 @@
       <c r="M64" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N64" s="28" t="str">
+      <c r="N64" s="37" t="str">
         <f>VLOOKUP(M64,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -9620,7 +9629,7 @@
       <c r="M65" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N65" s="28" t="str">
+      <c r="N65" s="37" t="str">
         <f>VLOOKUP(M65,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -9675,7 +9684,7 @@
       <c r="M66" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N66" s="28" t="str">
+      <c r="N66" s="37" t="str">
         <f>VLOOKUP(M66,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -9724,7 +9733,7 @@
       <c r="M67" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N67" s="28" t="str">
+      <c r="N67" s="37" t="str">
         <f>VLOOKUP(M67,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -9773,7 +9782,7 @@
       <c r="M68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N68" s="28" t="str">
+      <c r="N68" s="37" t="str">
         <f>VLOOKUP(M68,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -9822,7 +9831,7 @@
       <c r="M69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N69" s="28" t="str">
+      <c r="N69" s="37" t="str">
         <f>VLOOKUP(M69,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -9871,7 +9880,7 @@
       <c r="M70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N70" s="28" t="str">
+      <c r="N70" s="37" t="str">
         <f>VLOOKUP(M70,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -9920,7 +9929,7 @@
       <c r="M71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N71" s="28" t="str">
+      <c r="N71" s="37" t="str">
         <f>VLOOKUP(M71,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -9969,7 +9978,7 @@
       <c r="M72" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N72" s="28" t="str">
+      <c r="N72" s="37" t="str">
         <f>VLOOKUP(M72,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -10024,7 +10033,7 @@
       <c r="M73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N73" s="28" t="str">
+      <c r="N73" s="37" t="str">
         <f>VLOOKUP(M73,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -10079,7 +10088,7 @@
       <c r="M74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N74" s="28" t="str">
+      <c r="N74" s="37" t="str">
         <f>VLOOKUP(M74,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -10128,7 +10137,7 @@
       <c r="M75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N75" s="28" t="str">
+      <c r="N75" s="37" t="str">
         <f>VLOOKUP(M75,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -10183,7 +10192,7 @@
       <c r="M76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N76" s="28" t="str">
+      <c r="N76" s="37" t="str">
         <f>VLOOKUP(M76,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -10232,7 +10241,7 @@
       <c r="M77" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N77" s="28" t="str">
+      <c r="N77" s="37" t="str">
         <f>VLOOKUP(M77,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -10281,7 +10290,7 @@
       <c r="M78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N78" s="28" t="str">
+      <c r="N78" s="37" t="str">
         <f>VLOOKUP(M78,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -10330,7 +10339,7 @@
       <c r="M79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N79" s="28" t="str">
+      <c r="N79" s="37" t="str">
         <f>VLOOKUP(M79,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -10379,7 +10388,7 @@
       <c r="M80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N80" s="28" t="str">
+      <c r="N80" s="37" t="str">
         <f>VLOOKUP(M80,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -10428,7 +10437,7 @@
       <c r="M81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N81" s="28" t="str">
+      <c r="N81" s="37" t="str">
         <f>VLOOKUP(M81,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -10477,7 +10486,7 @@
       <c r="M82" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N82" s="28" t="str">
+      <c r="N82" s="37" t="str">
         <f>VLOOKUP(M82,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -10526,7 +10535,7 @@
       <c r="M83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="28" t="str">
+      <c r="N83" s="37" t="str">
         <f>VLOOKUP(M83,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -10575,7 +10584,7 @@
       <c r="M84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N84" s="28" t="str">
+      <c r="N84" s="37" t="str">
         <f>VLOOKUP(M84,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -10624,7 +10633,7 @@
       <c r="M85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N85" s="28" t="str">
+      <c r="N85" s="37" t="str">
         <f>VLOOKUP(M85,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -10673,7 +10682,7 @@
       <c r="M86" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N86" s="28" t="str">
+      <c r="N86" s="37" t="str">
         <f>VLOOKUP(M86,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -10728,7 +10737,7 @@
       <c r="M87" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N87" s="28" t="str">
+      <c r="N87" s="37" t="str">
         <f>VLOOKUP(M87,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -10777,7 +10786,7 @@
       <c r="M88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N88" s="28" t="str">
+      <c r="N88" s="37" t="str">
         <f>VLOOKUP(M88,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -10832,7 +10841,7 @@
       <c r="M89" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N89" s="28" t="str">
+      <c r="N89" s="37" t="str">
         <f>VLOOKUP(M89,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -10881,7 +10890,7 @@
       <c r="M90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N90" s="28" t="str">
+      <c r="N90" s="37" t="str">
         <f>VLOOKUP(M90,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -10930,7 +10939,7 @@
       <c r="M91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="28" t="str">
+      <c r="N91" s="37" t="str">
         <f>VLOOKUP(M91,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -10979,7 +10988,7 @@
       <c r="M92" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N92" s="28" t="str">
+      <c r="N92" s="37" t="str">
         <f>VLOOKUP(M92,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -11034,7 +11043,7 @@
       <c r="M93" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N93" s="28" t="str">
+      <c r="N93" s="37" t="str">
         <f>VLOOKUP(M93,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -11089,7 +11098,7 @@
       <c r="M94" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N94" s="28" t="str">
+      <c r="N94" s="37" t="str">
         <f>VLOOKUP(M94,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -11144,7 +11153,7 @@
       <c r="M95" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N95" s="28" t="str">
+      <c r="N95" s="37" t="str">
         <f>VLOOKUP(M95,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -11199,7 +11208,7 @@
       <c r="M96" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N96" s="28" t="str">
+      <c r="N96" s="37" t="str">
         <f>VLOOKUP(M96,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -11248,7 +11257,7 @@
       <c r="M97" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N97" s="28" t="str">
+      <c r="N97" s="37" t="str">
         <f>VLOOKUP(M97,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -11303,7 +11312,7 @@
       <c r="M98" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N98" s="28" t="str">
+      <c r="N98" s="37" t="str">
         <f>VLOOKUP(M98,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -11358,7 +11367,7 @@
       <c r="M99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N99" s="28" t="str">
+      <c r="N99" s="37" t="str">
         <f>VLOOKUP(M99,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -11413,7 +11422,7 @@
       <c r="M100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="28" t="str">
+      <c r="N100" s="37" t="str">
         <f>VLOOKUP(M100,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -11462,7 +11471,7 @@
       <c r="M101" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N101" s="28" t="str">
+      <c r="N101" s="37" t="str">
         <f>VLOOKUP(M101,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -11511,7 +11520,7 @@
       <c r="M102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="28" t="str">
+      <c r="N102" s="37" t="str">
         <f>VLOOKUP(M102,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -11560,7 +11569,7 @@
       <c r="M103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N103" s="28" t="str">
+      <c r="N103" s="37" t="str">
         <f>VLOOKUP(M103,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -11609,7 +11618,7 @@
       <c r="M104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N104" s="28" t="str">
+      <c r="N104" s="37" t="str">
         <f>VLOOKUP(M104,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -11658,7 +11667,7 @@
       <c r="M105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N105" s="28" t="str">
+      <c r="N105" s="37" t="str">
         <f>VLOOKUP(M105,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -11707,7 +11716,7 @@
       <c r="M106" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N106" s="28" t="str">
+      <c r="N106" s="37" t="str">
         <f>VLOOKUP(M106,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -11756,7 +11765,7 @@
       <c r="M107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N107" s="28" t="str">
+      <c r="N107" s="37" t="str">
         <f>VLOOKUP(M107,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -11805,7 +11814,7 @@
       <c r="M108" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N108" s="28" t="str">
+      <c r="N108" s="37" t="str">
         <f>VLOOKUP(M108,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -11860,7 +11869,7 @@
       <c r="M109" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N109" s="28" t="str">
+      <c r="N109" s="37" t="str">
         <f>VLOOKUP(M109,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -11915,7 +11924,7 @@
       <c r="M110" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N110" s="28" t="str">
+      <c r="N110" s="37" t="str">
         <f>VLOOKUP(M110,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -11970,7 +11979,7 @@
       <c r="M111" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N111" s="28" t="str">
+      <c r="N111" s="37" t="str">
         <f>VLOOKUP(M111,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -12019,7 +12028,7 @@
       <c r="M112" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N112" s="28" t="str">
+      <c r="N112" s="37" t="str">
         <f>VLOOKUP(M112,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -12068,7 +12077,7 @@
       <c r="M113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N113" s="28" t="str">
+      <c r="N113" s="37" t="str">
         <f>VLOOKUP(M113,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -12123,7 +12132,7 @@
       <c r="M114" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N114" s="28" t="str">
+      <c r="N114" s="37" t="str">
         <f>VLOOKUP(M114,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -12178,7 +12187,7 @@
       <c r="M115" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N115" s="28" t="str">
+      <c r="N115" s="37" t="str">
         <f>VLOOKUP(M115,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -12233,7 +12242,7 @@
       <c r="M116" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N116" s="28" t="str">
+      <c r="N116" s="37" t="str">
         <f>VLOOKUP(M116,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -12288,7 +12297,7 @@
       <c r="M117" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N117" s="28" t="str">
+      <c r="N117" s="37" t="str">
         <f>VLOOKUP(M117,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -12337,7 +12346,7 @@
       <c r="M118" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N118" s="28" t="str">
+      <c r="N118" s="37" t="str">
         <f>VLOOKUP(M118,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -12386,7 +12395,7 @@
       <c r="M119" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N119" s="28" t="str">
+      <c r="N119" s="37" t="str">
         <f>VLOOKUP(M119,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -12435,7 +12444,7 @@
       <c r="M120" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N120" s="28" t="str">
+      <c r="N120" s="37" t="str">
         <f>VLOOKUP(M120,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -12490,7 +12499,7 @@
       <c r="M121" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N121" s="28" t="str">
+      <c r="N121" s="37" t="str">
         <f>VLOOKUP(M121,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -12539,7 +12548,7 @@
       <c r="M122" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N122" s="28" t="str">
+      <c r="N122" s="37" t="str">
         <f>VLOOKUP(M122,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -12588,7 +12597,7 @@
       <c r="M123" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N123" s="28" t="str">
+      <c r="N123" s="37" t="str">
         <f>VLOOKUP(M123,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -12637,7 +12646,7 @@
       <c r="M124" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N124" s="28" t="str">
+      <c r="N124" s="37" t="str">
         <f>VLOOKUP(M124,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -12686,7 +12695,7 @@
       <c r="M125" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N125" s="28" t="str">
+      <c r="N125" s="37" t="str">
         <f>VLOOKUP(M125,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -12735,7 +12744,7 @@
       <c r="M126" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N126" s="28" t="str">
+      <c r="N126" s="37" t="str">
         <f>VLOOKUP(M126,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -12784,7 +12793,7 @@
       <c r="M127" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N127" s="28" t="str">
+      <c r="N127" s="37" t="str">
         <f>VLOOKUP(M127,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -12839,7 +12848,7 @@
       <c r="M128" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N128" s="28" t="str">
+      <c r="N128" s="37" t="str">
         <f>VLOOKUP(M128,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -12888,7 +12897,7 @@
       <c r="M129" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N129" s="28" t="str">
+      <c r="N129" s="37" t="str">
         <f>VLOOKUP(M129,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -12937,7 +12946,7 @@
       <c r="M130" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N130" s="28" t="str">
+      <c r="N130" s="37" t="str">
         <f>VLOOKUP(M130,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -12986,7 +12995,7 @@
       <c r="M131" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N131" s="28" t="str">
+      <c r="N131" s="37" t="str">
         <f>VLOOKUP(M131,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -13035,7 +13044,7 @@
       <c r="M132" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N132" s="28" t="str">
+      <c r="N132" s="37" t="str">
         <f>VLOOKUP(M132,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -13090,7 +13099,7 @@
       <c r="M133" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N133" s="28" t="str">
+      <c r="N133" s="37" t="str">
         <f>VLOOKUP(M133,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -13139,7 +13148,7 @@
       <c r="M134" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N134" s="28" t="str">
+      <c r="N134" s="37" t="str">
         <f>VLOOKUP(M134,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -13188,7 +13197,7 @@
       <c r="M135" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N135" s="28" t="str">
+      <c r="N135" s="37" t="str">
         <f>VLOOKUP(M135,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -13237,7 +13246,7 @@
       <c r="M136" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N136" s="28" t="str">
+      <c r="N136" s="37" t="str">
         <f>VLOOKUP(M136,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -13292,7 +13301,7 @@
       <c r="M137" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N137" s="28" t="str">
+      <c r="N137" s="37" t="str">
         <f>VLOOKUP(M137,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -13341,7 +13350,7 @@
       <c r="M138" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N138" s="28" t="str">
+      <c r="N138" s="37" t="str">
         <f>VLOOKUP(M138,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -13390,7 +13399,7 @@
       <c r="M139" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N139" s="28" t="str">
+      <c r="N139" s="37" t="str">
         <f>VLOOKUP(M139,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -13439,7 +13448,7 @@
       <c r="M140" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N140" s="28" t="str">
+      <c r="N140" s="37" t="str">
         <f>VLOOKUP(M140,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -13488,7 +13497,7 @@
       <c r="M141" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N141" s="28" t="str">
+      <c r="N141" s="37" t="str">
         <f>VLOOKUP(M141,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -13537,7 +13546,7 @@
       <c r="M142" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N142" s="28" t="str">
+      <c r="N142" s="37" t="str">
         <f>VLOOKUP(M142,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -13586,7 +13595,7 @@
       <c r="M143" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N143" s="28" t="str">
+      <c r="N143" s="37" t="str">
         <f>VLOOKUP(M143,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -13641,7 +13650,7 @@
       <c r="M144" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N144" s="28" t="str">
+      <c r="N144" s="37" t="str">
         <f>VLOOKUP(M144,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -13690,7 +13699,7 @@
       <c r="M145" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N145" s="28" t="str">
+      <c r="N145" s="37" t="str">
         <f>VLOOKUP(M145,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -13745,7 +13754,7 @@
       <c r="M146" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N146" s="28" t="str">
+      <c r="N146" s="37" t="str">
         <f>VLOOKUP(M146,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -13794,7 +13803,7 @@
       <c r="M147" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N147" s="28" t="str">
+      <c r="N147" s="37" t="str">
         <f>VLOOKUP(M147,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -13843,7 +13852,7 @@
       <c r="M148" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N148" s="28" t="str">
+      <c r="N148" s="37" t="str">
         <f>VLOOKUP(M148,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -13898,7 +13907,7 @@
       <c r="M149" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N149" s="28" t="str">
+      <c r="N149" s="37" t="str">
         <f>VLOOKUP(M149,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -13947,7 +13956,7 @@
       <c r="M150" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N150" s="28" t="str">
+      <c r="N150" s="37" t="str">
         <f>VLOOKUP(M150,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -14002,7 +14011,7 @@
       <c r="M151" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N151" s="28" t="str">
+      <c r="N151" s="37" t="str">
         <f>VLOOKUP(M151,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -14057,7 +14066,7 @@
       <c r="M152" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N152" s="28" t="str">
+      <c r="N152" s="37" t="str">
         <f>VLOOKUP(M152,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -14106,7 +14115,7 @@
       <c r="M153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N153" s="28" t="str">
+      <c r="N153" s="37" t="str">
         <f>VLOOKUP(M153,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -14155,7 +14164,7 @@
       <c r="M154" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N154" s="28" t="str">
+      <c r="N154" s="37" t="str">
         <f>VLOOKUP(M154,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -14210,7 +14219,7 @@
       <c r="M155" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N155" s="28" t="str">
+      <c r="N155" s="37" t="str">
         <f>VLOOKUP(M155,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -14265,7 +14274,7 @@
       <c r="M156" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N156" s="28" t="str">
+      <c r="N156" s="37" t="str">
         <f>VLOOKUP(M156,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -14320,7 +14329,7 @@
       <c r="M157" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N157" s="28" t="str">
+      <c r="N157" s="37" t="str">
         <f>VLOOKUP(M157,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -14369,7 +14378,7 @@
       <c r="M158" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N158" s="28" t="str">
+      <c r="N158" s="37" t="str">
         <f>VLOOKUP(M158,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -14418,7 +14427,7 @@
       <c r="M159" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N159" s="28" t="str">
+      <c r="N159" s="37" t="str">
         <f>VLOOKUP(M159,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -14473,7 +14482,7 @@
       <c r="M160" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N160" s="28" t="str">
+      <c r="N160" s="37" t="str">
         <f>VLOOKUP(M160,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -14522,7 +14531,7 @@
       <c r="M161" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N161" s="28" t="str">
+      <c r="N161" s="37" t="str">
         <f>VLOOKUP(M161,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -14571,7 +14580,7 @@
       <c r="M162" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N162" s="28" t="str">
+      <c r="N162" s="37" t="str">
         <f>VLOOKUP(M162,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -14620,7 +14629,7 @@
       <c r="M163" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N163" s="28" t="str">
+      <c r="N163" s="37" t="str">
         <f>VLOOKUP(M163,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -14669,7 +14678,7 @@
       <c r="M164" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N164" s="28" t="str">
+      <c r="N164" s="37" t="str">
         <f>VLOOKUP(M164,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -14718,7 +14727,7 @@
       <c r="M165" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N165" s="28" t="str">
+      <c r="N165" s="37" t="str">
         <f>VLOOKUP(M165,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -14773,7 +14782,7 @@
       <c r="M166" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N166" s="28" t="str">
+      <c r="N166" s="37" t="str">
         <f>VLOOKUP(M166,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -14822,7 +14831,7 @@
       <c r="M167" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N167" s="28" t="str">
+      <c r="N167" s="37" t="str">
         <f>VLOOKUP(M167,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -14877,7 +14886,7 @@
       <c r="M168" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N168" s="28" t="str">
+      <c r="N168" s="37" t="str">
         <f>VLOOKUP(M168,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -14926,7 +14935,7 @@
       <c r="M169" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N169" s="28" t="str">
+      <c r="N169" s="37" t="str">
         <f>VLOOKUP(M169,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -14981,7 +14990,7 @@
       <c r="M170" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N170" s="28" t="str">
+      <c r="N170" s="37" t="str">
         <f>VLOOKUP(M170,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -15036,7 +15045,7 @@
       <c r="M171" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N171" s="28" t="str">
+      <c r="N171" s="37" t="str">
         <f>VLOOKUP(M171,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -15085,7 +15094,7 @@
       <c r="M172" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N172" s="28" t="str">
+      <c r="N172" s="37" t="str">
         <f>VLOOKUP(M172,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -15140,7 +15149,7 @@
       <c r="M173" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N173" s="28" t="str">
+      <c r="N173" s="37" t="str">
         <f>VLOOKUP(M173,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -15189,7 +15198,7 @@
       <c r="M174" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N174" s="28" t="str">
+      <c r="N174" s="37" t="str">
         <f>VLOOKUP(M174,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -15238,7 +15247,7 @@
       <c r="M175" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N175" s="28" t="str">
+      <c r="N175" s="37" t="str">
         <f>VLOOKUP(M175,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -15293,7 +15302,7 @@
       <c r="M176" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N176" s="28" t="str">
+      <c r="N176" s="37" t="str">
         <f>VLOOKUP(M176,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -15342,7 +15351,7 @@
       <c r="M177" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N177" s="28" t="str">
+      <c r="N177" s="37" t="str">
         <f>VLOOKUP(M177,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -15391,7 +15400,7 @@
       <c r="M178" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N178" s="28" t="str">
+      <c r="N178" s="37" t="str">
         <f>VLOOKUP(M178,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -15440,7 +15449,7 @@
       <c r="M179" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N179" s="28" t="str">
+      <c r="N179" s="37" t="str">
         <f>VLOOKUP(M179,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -15495,7 +15504,7 @@
       <c r="M180" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N180" s="28" t="str">
+      <c r="N180" s="37" t="str">
         <f>VLOOKUP(M180,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -15544,7 +15553,7 @@
       <c r="M181" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N181" s="28" t="str">
+      <c r="N181" s="37" t="str">
         <f>VLOOKUP(M181,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -15593,7 +15602,7 @@
       <c r="M182" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N182" s="28" t="str">
+      <c r="N182" s="37" t="str">
         <f>VLOOKUP(M182,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -15642,7 +15651,7 @@
       <c r="M183" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N183" s="28" t="str">
+      <c r="N183" s="37" t="str">
         <f>VLOOKUP(M183,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -15691,7 +15700,7 @@
       <c r="M184" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N184" s="28" t="str">
+      <c r="N184" s="37" t="str">
         <f>VLOOKUP(M184,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -15740,7 +15749,7 @@
       <c r="M185" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N185" s="28" t="str">
+      <c r="N185" s="37" t="str">
         <f>VLOOKUP(M185,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -15795,7 +15804,7 @@
       <c r="M186" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N186" s="28" t="str">
+      <c r="N186" s="37" t="str">
         <f>VLOOKUP(M186,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -15844,7 +15853,7 @@
       <c r="M187" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N187" s="28" t="str">
+      <c r="N187" s="37" t="str">
         <f>VLOOKUP(M187,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -15893,7 +15902,7 @@
       <c r="M188" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N188" s="28" t="str">
+      <c r="N188" s="37" t="str">
         <f>VLOOKUP(M188,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -15942,7 +15951,7 @@
       <c r="M189" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N189" s="28" t="str">
+      <c r="N189" s="37" t="str">
         <f>VLOOKUP(M189,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -15991,7 +16000,7 @@
       <c r="M190" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N190" s="28" t="str">
+      <c r="N190" s="37" t="str">
         <f>VLOOKUP(M190,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -16040,7 +16049,7 @@
       <c r="M191" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N191" s="28" t="str">
+      <c r="N191" s="37" t="str">
         <f>VLOOKUP(M191,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -16095,7 +16104,7 @@
       <c r="M192" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N192" s="28" t="str">
+      <c r="N192" s="37" t="str">
         <f>VLOOKUP(M192,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -16144,7 +16153,7 @@
       <c r="M193" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N193" s="28" t="str">
+      <c r="N193" s="37" t="str">
         <f>VLOOKUP(M193,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -16193,7 +16202,7 @@
       <c r="M194" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N194" s="28" t="str">
+      <c r="N194" s="37" t="str">
         <f>VLOOKUP(M194,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -16242,7 +16251,7 @@
       <c r="M195" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N195" s="28" t="str">
+      <c r="N195" s="37" t="str">
         <f>VLOOKUP(M195,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -16297,7 +16306,7 @@
       <c r="M196" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N196" s="28" t="str">
+      <c r="N196" s="37" t="str">
         <f>VLOOKUP(M196,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -16346,7 +16355,7 @@
       <c r="M197" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N197" s="28" t="str">
+      <c r="N197" s="37" t="str">
         <f>VLOOKUP(M197,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -16401,7 +16410,7 @@
       <c r="M198" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N198" s="28" t="str">
+      <c r="N198" s="37" t="str">
         <f>VLOOKUP(M198,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -16456,7 +16465,7 @@
       <c r="M199" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N199" s="28" t="str">
+      <c r="N199" s="37" t="str">
         <f>VLOOKUP(M199,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -16511,7 +16520,7 @@
       <c r="M200" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N200" s="28" t="str">
+      <c r="N200" s="37" t="str">
         <f>VLOOKUP(M200,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -16566,7 +16575,7 @@
       <c r="M201" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N201" s="28" t="str">
+      <c r="N201" s="37" t="str">
         <f>VLOOKUP(M201,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -16621,7 +16630,7 @@
       <c r="M202" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N202" s="28" t="str">
+      <c r="N202" s="37" t="str">
         <f>VLOOKUP(M202,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -16676,7 +16685,7 @@
       <c r="M203" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N203" s="28" t="str">
+      <c r="N203" s="37" t="str">
         <f>VLOOKUP(M203,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -16728,7 +16737,7 @@
       <c r="M204" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N204" s="28" t="str">
+      <c r="N204" s="37" t="str">
         <f>VLOOKUP(M204,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -16783,7 +16792,7 @@
       <c r="M205" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N205" s="28" t="str">
+      <c r="N205" s="37" t="str">
         <f>VLOOKUP(M205,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -16838,7 +16847,7 @@
       <c r="M206" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N206" s="28" t="str">
+      <c r="N206" s="37" t="str">
         <f>VLOOKUP(M206,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -16887,7 +16896,7 @@
       <c r="M207" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N207" s="28" t="str">
+      <c r="N207" s="37" t="str">
         <f>VLOOKUP(M207,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -16936,7 +16945,7 @@
       <c r="M208" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N208" s="28" t="str">
+      <c r="N208" s="37" t="str">
         <f>VLOOKUP(M208,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -16985,7 +16994,7 @@
       <c r="M209" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N209" s="28" t="str">
+      <c r="N209" s="37" t="str">
         <f>VLOOKUP(M209,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -17040,7 +17049,7 @@
       <c r="M210" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N210" s="28" t="str">
+      <c r="N210" s="37" t="str">
         <f>VLOOKUP(M210,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -17089,7 +17098,7 @@
       <c r="M211" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N211" s="28" t="str">
+      <c r="N211" s="37" t="str">
         <f>VLOOKUP(M211,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -17144,7 +17153,7 @@
       <c r="M212" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N212" s="28" t="str">
+      <c r="N212" s="37" t="str">
         <f>VLOOKUP(M212,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -17193,7 +17202,7 @@
       <c r="M213" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N213" s="28" t="str">
+      <c r="N213" s="37" t="str">
         <f>VLOOKUP(M213,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -17248,7 +17257,7 @@
       <c r="M214" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N214" s="28" t="str">
+      <c r="N214" s="37" t="str">
         <f>VLOOKUP(M214,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -17297,7 +17306,7 @@
       <c r="M215" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N215" s="28" t="str">
+      <c r="N215" s="37" t="str">
         <f>VLOOKUP(M215,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -17346,7 +17355,7 @@
       <c r="M216" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N216" s="28" t="str">
+      <c r="N216" s="37" t="str">
         <f>VLOOKUP(M216,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -17395,7 +17404,7 @@
       <c r="M217" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N217" s="28" t="str">
+      <c r="N217" s="37" t="str">
         <f>VLOOKUP(M217,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -17444,7 +17453,7 @@
       <c r="M218" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N218" s="28" t="str">
+      <c r="N218" s="37" t="str">
         <f>VLOOKUP(M218,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -17493,7 +17502,7 @@
       <c r="M219" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N219" s="28" t="str">
+      <c r="N219" s="37" t="str">
         <f>VLOOKUP(M219,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -17548,7 +17557,7 @@
       <c r="M220" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N220" s="28" t="str">
+      <c r="N220" s="37" t="str">
         <f>VLOOKUP(M220,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -17603,7 +17612,7 @@
       <c r="M221" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N221" s="28" t="str">
+      <c r="N221" s="37" t="str">
         <f>VLOOKUP(M221,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -17652,7 +17661,7 @@
       <c r="M222" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N222" s="28" t="str">
+      <c r="N222" s="37" t="str">
         <f>VLOOKUP(M222,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -17707,7 +17716,7 @@
       <c r="M223" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N223" s="28" t="str">
+      <c r="N223" s="37" t="str">
         <f>VLOOKUP(M223,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -17756,7 +17765,7 @@
       <c r="M224" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N224" s="28" t="str">
+      <c r="N224" s="37" t="str">
         <f>VLOOKUP(M224,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -17811,7 +17820,7 @@
       <c r="M225" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N225" s="28" t="str">
+      <c r="N225" s="37" t="str">
         <f>VLOOKUP(M225,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -17860,7 +17869,7 @@
       <c r="M226" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N226" s="28" t="str">
+      <c r="N226" s="37" t="str">
         <f>VLOOKUP(M226,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -17915,7 +17924,7 @@
       <c r="M227" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N227" s="28" t="str">
+      <c r="N227" s="37" t="str">
         <f>VLOOKUP(M227,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -17970,7 +17979,7 @@
       <c r="M228" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N228" s="28" t="str">
+      <c r="N228" s="37" t="str">
         <f>VLOOKUP(M228,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -18025,7 +18034,7 @@
       <c r="M229" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N229" s="28" t="str">
+      <c r="N229" s="37" t="str">
         <f>VLOOKUP(M229,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -18080,7 +18089,7 @@
       <c r="M230" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N230" s="28" t="str">
+      <c r="N230" s="37" t="str">
         <f>VLOOKUP(M230,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -18129,7 +18138,7 @@
       <c r="M231" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N231" s="28" t="str">
+      <c r="N231" s="37" t="str">
         <f>VLOOKUP(M231,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -18178,7 +18187,7 @@
       <c r="M232" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N232" s="28" t="str">
+      <c r="N232" s="37" t="str">
         <f>VLOOKUP(M232,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -18227,7 +18236,7 @@
       <c r="M233" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N233" s="28" t="str">
+      <c r="N233" s="37" t="str">
         <f>VLOOKUP(M233,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -18276,7 +18285,7 @@
       <c r="M234" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N234" s="28" t="str">
+      <c r="N234" s="37" t="str">
         <f>VLOOKUP(M234,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -18331,7 +18340,7 @@
       <c r="M235" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N235" s="28" t="str">
+      <c r="N235" s="37" t="str">
         <f>VLOOKUP(M235,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -18380,7 +18389,7 @@
       <c r="M236" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N236" s="28" t="str">
+      <c r="N236" s="37" t="str">
         <f>VLOOKUP(M236,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -18429,7 +18438,7 @@
       <c r="M237" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N237" s="28" t="str">
+      <c r="N237" s="37" t="str">
         <f>VLOOKUP(M237,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -18484,7 +18493,7 @@
       <c r="M238" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N238" s="28" t="str">
+      <c r="N238" s="37" t="str">
         <f>VLOOKUP(M238,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -18539,7 +18548,7 @@
       <c r="M239" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N239" s="28" t="str">
+      <c r="N239" s="37" t="str">
         <f>VLOOKUP(M239,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -18594,7 +18603,7 @@
       <c r="M240" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N240" s="28" t="str">
+      <c r="N240" s="37" t="str">
         <f>VLOOKUP(M240,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -18649,7 +18658,7 @@
       <c r="M241" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N241" s="28" t="str">
+      <c r="N241" s="37" t="str">
         <f>VLOOKUP(M241,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -18704,7 +18713,7 @@
       <c r="M242" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N242" s="28" t="str">
+      <c r="N242" s="37" t="str">
         <f>VLOOKUP(M242,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -18759,7 +18768,7 @@
       <c r="M243" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N243" s="28" t="str">
+      <c r="N243" s="37" t="str">
         <f>VLOOKUP(M243,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -18808,7 +18817,7 @@
       <c r="M244" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N244" s="28" t="str">
+      <c r="N244" s="37" t="str">
         <f>VLOOKUP(M244,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -18863,7 +18872,7 @@
       <c r="M245" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N245" s="28" t="str">
+      <c r="N245" s="37" t="str">
         <f>VLOOKUP(M245,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -18918,7 +18927,7 @@
       <c r="M246" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N246" s="28" t="str">
+      <c r="N246" s="37" t="str">
         <f>VLOOKUP(M246,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -18967,7 +18976,7 @@
       <c r="M247" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N247" s="28" t="str">
+      <c r="N247" s="37" t="str">
         <f>VLOOKUP(M247,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -19022,7 +19031,7 @@
       <c r="M248" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N248" s="28" t="str">
+      <c r="N248" s="37" t="str">
         <f>VLOOKUP(M248,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -19077,7 +19086,7 @@
       <c r="M249" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N249" s="28" t="str">
+      <c r="N249" s="37" t="str">
         <f>VLOOKUP(M249,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -19132,7 +19141,7 @@
       <c r="M250" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N250" s="28" t="str">
+      <c r="N250" s="37" t="str">
         <f>VLOOKUP(M250,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -19187,7 +19196,7 @@
       <c r="M251" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N251" s="28" t="str">
+      <c r="N251" s="37" t="str">
         <f>VLOOKUP(M251,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -19236,7 +19245,7 @@
       <c r="M252" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N252" s="28" t="str">
+      <c r="N252" s="37" t="str">
         <f>VLOOKUP(M252,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -19291,7 +19300,7 @@
       <c r="M253" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N253" s="28" t="str">
+      <c r="N253" s="37" t="str">
         <f>VLOOKUP(M253,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -19346,7 +19355,7 @@
       <c r="M254" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N254" s="28" t="str">
+      <c r="N254" s="37" t="str">
         <f>VLOOKUP(M254,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -19395,7 +19404,7 @@
       <c r="M255" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N255" s="28" t="str">
+      <c r="N255" s="37" t="str">
         <f>VLOOKUP(M255,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -19444,7 +19453,7 @@
       <c r="M256" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N256" s="28" t="str">
+      <c r="N256" s="37" t="str">
         <f>VLOOKUP(M256,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -19499,7 +19508,7 @@
       <c r="M257" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N257" s="28" t="str">
+      <c r="N257" s="37" t="str">
         <f>VLOOKUP(M257,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -19548,7 +19557,7 @@
       <c r="M258" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N258" s="28" t="str">
+      <c r="N258" s="37" t="str">
         <f>VLOOKUP(M258,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -19597,7 +19606,7 @@
       <c r="M259" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N259" s="28" t="str">
+      <c r="N259" s="37" t="str">
         <f>VLOOKUP(M259,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -19646,7 +19655,7 @@
       <c r="M260" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N260" s="28" t="str">
+      <c r="N260" s="37" t="str">
         <f>VLOOKUP(M260,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -19695,7 +19704,7 @@
       <c r="M261" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N261" s="28" t="str">
+      <c r="N261" s="37" t="str">
         <f>VLOOKUP(M261,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -19750,7 +19759,7 @@
       <c r="M262" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N262" s="28" t="str">
+      <c r="N262" s="37" t="str">
         <f>VLOOKUP(M262,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -19799,7 +19808,7 @@
       <c r="M263" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N263" s="28" t="str">
+      <c r="N263" s="37" t="str">
         <f>VLOOKUP(M263,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -19848,7 +19857,7 @@
       <c r="M264" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N264" s="28" t="str">
+      <c r="N264" s="37" t="str">
         <f>VLOOKUP(M264,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -19903,7 +19912,7 @@
       <c r="M265" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N265" s="28" t="str">
+      <c r="N265" s="37" t="str">
         <f>VLOOKUP(M265,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -19958,7 +19967,7 @@
       <c r="M266" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N266" s="28" t="str">
+      <c r="N266" s="37" t="str">
         <f>VLOOKUP(M266,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -20007,7 +20016,7 @@
       <c r="M267" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N267" s="28" t="str">
+      <c r="N267" s="37" t="str">
         <f>VLOOKUP(M267,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -20056,7 +20065,7 @@
       <c r="M268" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N268" s="28" t="str">
+      <c r="N268" s="37" t="str">
         <f>VLOOKUP(M268,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht beurteilt</v>
       </c>
@@ -20111,7 +20120,7 @@
       <c r="M269" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N269" s="28" t="str">
+      <c r="N269" s="37" t="str">
         <f>VLOOKUP(M269,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -20160,7 +20169,7 @@
       <c r="M270" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N270" s="28" t="str">
+      <c r="N270" s="37" t="str">
         <f>VLOOKUP(M270,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -20209,7 +20218,7 @@
       <c r="M271" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N271" s="28" t="str">
+      <c r="N271" s="37" t="str">
         <f>VLOOKUP(M271,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht beurteilt</v>
       </c>
@@ -20258,7 +20267,7 @@
       <c r="M272" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N272" s="28" t="str">
+      <c r="N272" s="37" t="str">
         <f>VLOOKUP(M272,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -20313,7 +20322,7 @@
       <c r="M273" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N273" s="28" t="str">
+      <c r="N273" s="37" t="str">
         <f>VLOOKUP(M273,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -20362,7 +20371,7 @@
       <c r="M274" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N274" s="28" t="str">
+      <c r="N274" s="37" t="str">
         <f>VLOOKUP(M274,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -20411,7 +20420,7 @@
       <c r="M275" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N275" s="28" t="str">
+      <c r="N275" s="37" t="str">
         <f>VLOOKUP(M275,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -20466,7 +20475,7 @@
       <c r="M276" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N276" s="28" t="str">
+      <c r="N276" s="37" t="str">
         <f>VLOOKUP(M276,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -20521,7 +20530,7 @@
       <c r="M277" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N277" s="28" t="str">
+      <c r="N277" s="37" t="str">
         <f>VLOOKUP(M277,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -20570,7 +20579,7 @@
       <c r="M278" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N278" s="28" t="str">
+      <c r="N278" s="37" t="str">
         <f>VLOOKUP(M278,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -20619,7 +20628,7 @@
       <c r="M279" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N279" s="28" t="str">
+      <c r="N279" s="37" t="str">
         <f>VLOOKUP(M279,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -20668,7 +20677,7 @@
       <c r="M280" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N280" s="28" t="str">
+      <c r="N280" s="37" t="str">
         <f>VLOOKUP(M280,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -20717,7 +20726,7 @@
       <c r="M281" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N281" s="28" t="str">
+      <c r="N281" s="37" t="str">
         <f>VLOOKUP(M281,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -20766,7 +20775,7 @@
       <c r="M282" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N282" s="28" t="str">
+      <c r="N282" s="37" t="str">
         <f>VLOOKUP(M282,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -20815,7 +20824,7 @@
       <c r="M283" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N283" s="28" t="str">
+      <c r="N283" s="37" t="str">
         <f>VLOOKUP(M283,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -20870,7 +20879,7 @@
       <c r="M284" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N284" s="28" t="str">
+      <c r="N284" s="37" t="str">
         <f>VLOOKUP(M284,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -20919,7 +20928,7 @@
       <c r="M285" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N285" s="28" t="str">
+      <c r="N285" s="37" t="str">
         <f>VLOOKUP(M285,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -20974,7 +20983,7 @@
       <c r="M286" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N286" s="28" t="str">
+      <c r="N286" s="37" t="str">
         <f>VLOOKUP(M286,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -21023,7 +21032,7 @@
       <c r="M287" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N287" s="28" t="str">
+      <c r="N287" s="37" t="str">
         <f>VLOOKUP(M287,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -21072,7 +21081,7 @@
       <c r="M288" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N288" s="28" t="str">
+      <c r="N288" s="37" t="str">
         <f>VLOOKUP(M288,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -21121,7 +21130,7 @@
       <c r="M289" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N289" s="28" t="str">
+      <c r="N289" s="37" t="str">
         <f>VLOOKUP(M289,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -21170,7 +21179,7 @@
       <c r="M290" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N290" s="28" t="str">
+      <c r="N290" s="37" t="str">
         <f>VLOOKUP(M290,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -21219,7 +21228,7 @@
       <c r="M291" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N291" s="28" t="str">
+      <c r="N291" s="37" t="str">
         <f>VLOOKUP(M291,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -21274,7 +21283,7 @@
       <c r="M292" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N292" s="28" t="str">
+      <c r="N292" s="37" t="str">
         <f>VLOOKUP(M292,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -21329,7 +21338,7 @@
       <c r="M293" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N293" s="28" t="str">
+      <c r="N293" s="37" t="str">
         <f>VLOOKUP(M293,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -21378,7 +21387,7 @@
       <c r="M294" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N294" s="28" t="str">
+      <c r="N294" s="37" t="str">
         <f>VLOOKUP(M294,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -21427,7 +21436,7 @@
       <c r="M295" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N295" s="28" t="str">
+      <c r="N295" s="37" t="str">
         <f>VLOOKUP(M295,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -21476,7 +21485,7 @@
       <c r="M296" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N296" s="28" t="str">
+      <c r="N296" s="37" t="str">
         <f>VLOOKUP(M296,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -21525,7 +21534,7 @@
       <c r="M297" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N297" s="28" t="str">
+      <c r="N297" s="37" t="str">
         <f>VLOOKUP(M297,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -21580,7 +21589,7 @@
       <c r="M298" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N298" s="28" t="str">
+      <c r="N298" s="37" t="str">
         <f>VLOOKUP(M298,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -21635,7 +21644,7 @@
       <c r="M299" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N299" s="28" t="str">
+      <c r="N299" s="37" t="str">
         <f>VLOOKUP(M299,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -21690,7 +21699,7 @@
       <c r="M300" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N300" s="28" t="str">
+      <c r="N300" s="37" t="str">
         <f>VLOOKUP(M300,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -21745,7 +21754,7 @@
       <c r="M301" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N301" s="28" t="str">
+      <c r="N301" s="37" t="str">
         <f>VLOOKUP(M301,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -21794,7 +21803,7 @@
       <c r="M302" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N302" s="28" t="str">
+      <c r="N302" s="37" t="str">
         <f>VLOOKUP(M302,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -21843,7 +21852,7 @@
       <c r="M303" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N303" s="28" t="str">
+      <c r="N303" s="37" t="str">
         <f>VLOOKUP(M303,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -21892,7 +21901,7 @@
       <c r="M304" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N304" s="28" t="str">
+      <c r="N304" s="37" t="str">
         <f>VLOOKUP(M304,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -21941,7 +21950,7 @@
       <c r="M305" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N305" s="28" t="str">
+      <c r="N305" s="37" t="str">
         <f>VLOOKUP(M305,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -21990,7 +21999,7 @@
       <c r="M306" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N306" s="28" t="str">
+      <c r="N306" s="37" t="str">
         <f>VLOOKUP(M306,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -22045,7 +22054,7 @@
       <c r="M307" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N307" s="28" t="str">
+      <c r="N307" s="37" t="str">
         <f>VLOOKUP(M307,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -22100,7 +22109,7 @@
       <c r="M308" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N308" s="28" t="str">
+      <c r="N308" s="37" t="str">
         <f>VLOOKUP(M308,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -22155,7 +22164,7 @@
       <c r="M309" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N309" s="28" t="str">
+      <c r="N309" s="37" t="str">
         <f>VLOOKUP(M309,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -22204,7 +22213,7 @@
       <c r="M310" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N310" s="28" t="str">
+      <c r="N310" s="37" t="str">
         <f>VLOOKUP(M310,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -22253,7 +22262,7 @@
       <c r="M311" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N311" s="28" t="str">
+      <c r="N311" s="37" t="str">
         <f>VLOOKUP(M311,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -22302,7 +22311,7 @@
       <c r="M312" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N312" s="28" t="str">
+      <c r="N312" s="37" t="str">
         <f>VLOOKUP(M312,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -22351,7 +22360,7 @@
       <c r="M313" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N313" s="28" t="str">
+      <c r="N313" s="37" t="str">
         <f>VLOOKUP(M313,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -22400,7 +22409,7 @@
       <c r="M314" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N314" s="28" t="str">
+      <c r="N314" s="37" t="str">
         <f>VLOOKUP(M314,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -22455,7 +22464,7 @@
       <c r="M315" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N315" s="28" t="str">
+      <c r="N315" s="37" t="str">
         <f>VLOOKUP(M315,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -22504,7 +22513,7 @@
       <c r="M316" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N316" s="28" t="str">
+      <c r="N316" s="37" t="str">
         <f>VLOOKUP(M316,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -22553,7 +22562,7 @@
       <c r="M317" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N317" s="28" t="str">
+      <c r="N317" s="37" t="str">
         <f>VLOOKUP(M317,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -22602,7 +22611,7 @@
       <c r="M318" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N318" s="28" t="str">
+      <c r="N318" s="37" t="str">
         <f>VLOOKUP(M318,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -22657,7 +22666,7 @@
       <c r="M319" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N319" s="28" t="str">
+      <c r="N319" s="37" t="str">
         <f>VLOOKUP(M319,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -22712,7 +22721,7 @@
       <c r="M320" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N320" s="28" t="str">
+      <c r="N320" s="37" t="str">
         <f>VLOOKUP(M320,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -22761,7 +22770,7 @@
       <c r="M321" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N321" s="28" t="str">
+      <c r="N321" s="37" t="str">
         <f>VLOOKUP(M321,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -22816,7 +22825,7 @@
       <c r="M322" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N322" s="28" t="str">
+      <c r="N322" s="37" t="str">
         <f>VLOOKUP(M322,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -22871,7 +22880,7 @@
       <c r="M323" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N323" s="28" t="str">
+      <c r="N323" s="37" t="str">
         <f>VLOOKUP(M323,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -22926,7 +22935,7 @@
       <c r="M324" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N324" s="28" t="str">
+      <c r="N324" s="37" t="str">
         <f>VLOOKUP(M324,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -22975,7 +22984,7 @@
       <c r="M325" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N325" s="28" t="str">
+      <c r="N325" s="37" t="str">
         <f>VLOOKUP(M325,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -23030,7 +23039,7 @@
       <c r="M326" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N326" s="28" t="str">
+      <c r="N326" s="37" t="str">
         <f>VLOOKUP(M326,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -23085,7 +23094,7 @@
       <c r="M327" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N327" s="28" t="str">
+      <c r="N327" s="37" t="str">
         <f>VLOOKUP(M327,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -23134,7 +23143,7 @@
       <c r="M328" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N328" s="28" t="str">
+      <c r="N328" s="37" t="str">
         <f>VLOOKUP(M328,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -23183,7 +23192,7 @@
       <c r="M329" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N329" s="28" t="str">
+      <c r="N329" s="37" t="str">
         <f>VLOOKUP(M329,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -23238,7 +23247,7 @@
       <c r="M330" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N330" s="28" t="str">
+      <c r="N330" s="37" t="str">
         <f>VLOOKUP(M330,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -23287,7 +23296,7 @@
       <c r="M331" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N331" s="28" t="str">
+      <c r="N331" s="37" t="str">
         <f>VLOOKUP(M331,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -23342,7 +23351,7 @@
       <c r="M332" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N332" s="28" t="str">
+      <c r="N332" s="37" t="str">
         <f>VLOOKUP(M332,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -23391,7 +23400,7 @@
       <c r="M333" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N333" s="28" t="str">
+      <c r="N333" s="37" t="str">
         <f>VLOOKUP(M333,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -23446,7 +23455,7 @@
       <c r="M334" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N334" s="28" t="str">
+      <c r="N334" s="37" t="str">
         <f>VLOOKUP(M334,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -23501,7 +23510,7 @@
       <c r="M335" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N335" s="28" t="str">
+      <c r="N335" s="37" t="str">
         <f>VLOOKUP(M335,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -23556,7 +23565,7 @@
       <c r="M336" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N336" s="28" t="str">
+      <c r="N336" s="37" t="str">
         <f>VLOOKUP(M336,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -23611,7 +23620,7 @@
       <c r="M337" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N337" s="28" t="str">
+      <c r="N337" s="37" t="str">
         <f>VLOOKUP(M337,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -23660,7 +23669,7 @@
       <c r="M338" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N338" s="28" t="str">
+      <c r="N338" s="37" t="str">
         <f>VLOOKUP(M338,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -23709,7 +23718,7 @@
       <c r="M339" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N339" s="28" t="str">
+      <c r="N339" s="37" t="str">
         <f>VLOOKUP(M339,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -23758,7 +23767,7 @@
       <c r="M340" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N340" s="28" t="str">
+      <c r="N340" s="37" t="str">
         <f>VLOOKUP(M340,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -23807,7 +23816,7 @@
       <c r="M341" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N341" s="28" t="str">
+      <c r="N341" s="37" t="str">
         <f>VLOOKUP(M341,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -23862,7 +23871,7 @@
       <c r="M342" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N342" s="28" t="str">
+      <c r="N342" s="37" t="str">
         <f>VLOOKUP(M342,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -23917,7 +23926,7 @@
       <c r="M343" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N343" s="28" t="str">
+      <c r="N343" s="37" t="str">
         <f>VLOOKUP(M343,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -23966,7 +23975,7 @@
       <c r="M344" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N344" s="28" t="str">
+      <c r="N344" s="37" t="str">
         <f>VLOOKUP(M344,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -24021,7 +24030,7 @@
       <c r="M345" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N345" s="28" t="str">
+      <c r="N345" s="37" t="str">
         <f>VLOOKUP(M345,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -24076,7 +24085,7 @@
       <c r="M346" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N346" s="28" t="str">
+      <c r="N346" s="37" t="str">
         <f>VLOOKUP(M346,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -24131,7 +24140,7 @@
       <c r="M347" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N347" s="28" t="str">
+      <c r="N347" s="37" t="str">
         <f>VLOOKUP(M347,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -24180,7 +24189,7 @@
       <c r="M348" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N348" s="28" t="str">
+      <c r="N348" s="37" t="str">
         <f>VLOOKUP(M348,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -24229,7 +24238,7 @@
       <c r="M349" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N349" s="28" t="str">
+      <c r="N349" s="37" t="str">
         <f>VLOOKUP(M349,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -24278,7 +24287,7 @@
       <c r="M350" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N350" s="28" t="str">
+      <c r="N350" s="37" t="str">
         <f>VLOOKUP(M350,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -24333,7 +24342,7 @@
       <c r="M351" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N351" s="28" t="str">
+      <c r="N351" s="37" t="str">
         <f>VLOOKUP(M351,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -24382,7 +24391,7 @@
       <c r="M352" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N352" s="28" t="str">
+      <c r="N352" s="37" t="str">
         <f>VLOOKUP(M352,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -24431,7 +24440,7 @@
       <c r="M353" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N353" s="28" t="str">
+      <c r="N353" s="37" t="str">
         <f>VLOOKUP(M353,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -24486,7 +24495,7 @@
       <c r="M354" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N354" s="28" t="str">
+      <c r="N354" s="37" t="str">
         <f>VLOOKUP(M354,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -24541,7 +24550,7 @@
       <c r="M355" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N355" s="28" t="str">
+      <c r="N355" s="37" t="str">
         <f>VLOOKUP(M355,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -24596,7 +24605,7 @@
       <c r="M356" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N356" s="28" t="str">
+      <c r="N356" s="37" t="str">
         <f>VLOOKUP(M356,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -24651,7 +24660,7 @@
       <c r="M357" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N357" s="28" t="str">
+      <c r="N357" s="37" t="str">
         <f>VLOOKUP(M357,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -24700,7 +24709,7 @@
       <c r="M358" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N358" s="28" t="str">
+      <c r="N358" s="37" t="str">
         <f>VLOOKUP(M358,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -24749,7 +24758,7 @@
       <c r="M359" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N359" s="28" t="str">
+      <c r="N359" s="37" t="str">
         <f>VLOOKUP(M359,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -24804,7 +24813,7 @@
       <c r="M360" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N360" s="28" t="str">
+      <c r="N360" s="37" t="str">
         <f>VLOOKUP(M360,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -24859,7 +24868,7 @@
       <c r="M361" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N361" s="28" t="str">
+      <c r="N361" s="37" t="str">
         <f>VLOOKUP(M361,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -24908,7 +24917,7 @@
       <c r="M362" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N362" s="28" t="str">
+      <c r="N362" s="37" t="str">
         <f>VLOOKUP(M362,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -24957,7 +24966,7 @@
       <c r="M363" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N363" s="28" t="str">
+      <c r="N363" s="37" t="str">
         <f>VLOOKUP(M363,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -25012,7 +25021,7 @@
       <c r="M364" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N364" s="28" t="str">
+      <c r="N364" s="37" t="str">
         <f>VLOOKUP(M364,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -25067,7 +25076,7 @@
       <c r="M365" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N365" s="28" t="str">
+      <c r="N365" s="37" t="str">
         <f>VLOOKUP(M365,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -25116,7 +25125,7 @@
       <c r="M366" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N366" s="28" t="str">
+      <c r="N366" s="37" t="str">
         <f>VLOOKUP(M366,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -25171,7 +25180,7 @@
       <c r="M367" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N367" s="28" t="str">
+      <c r="N367" s="37" t="str">
         <f>VLOOKUP(M367,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -25220,7 +25229,7 @@
       <c r="M368" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N368" s="28" t="str">
+      <c r="N368" s="37" t="str">
         <f>VLOOKUP(M368,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -25269,7 +25278,7 @@
       <c r="M369" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N369" s="28" t="str">
+      <c r="N369" s="37" t="str">
         <f>VLOOKUP(M369,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -25324,7 +25333,7 @@
       <c r="M370" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N370" s="28" t="str">
+      <c r="N370" s="37" t="str">
         <f>VLOOKUP(M370,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht beurteilt</v>
       </c>
@@ -25373,7 +25382,7 @@
       <c r="M371" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N371" s="28" t="str">
+      <c r="N371" s="37" t="str">
         <f>VLOOKUP(M371,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -25428,7 +25437,7 @@
       <c r="M372" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N372" s="28" t="str">
+      <c r="N372" s="37" t="str">
         <f>VLOOKUP(M372,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -25477,7 +25486,7 @@
       <c r="M373" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N373" s="28" t="str">
+      <c r="N373" s="37" t="str">
         <f>VLOOKUP(M373,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -25532,7 +25541,7 @@
       <c r="M374" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N374" s="28" t="str">
+      <c r="N374" s="37" t="str">
         <f>VLOOKUP(M374,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -25581,7 +25590,7 @@
       <c r="M375" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N375" s="28" t="str">
+      <c r="N375" s="37" t="str">
         <f>VLOOKUP(M375,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -25630,7 +25639,7 @@
       <c r="M376" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N376" s="28" t="str">
+      <c r="N376" s="37" t="str">
         <f>VLOOKUP(M376,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -25679,7 +25688,7 @@
       <c r="M377" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N377" s="28" t="str">
+      <c r="N377" s="37" t="str">
         <f>VLOOKUP(M377,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -25728,7 +25737,7 @@
       <c r="M378" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N378" s="28" t="str">
+      <c r="N378" s="37" t="str">
         <f>VLOOKUP(M378,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht beurteilt</v>
       </c>
@@ -25783,7 +25792,7 @@
       <c r="M379" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N379" s="28" t="str">
+      <c r="N379" s="37" t="str">
         <f>VLOOKUP(M379,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -25838,7 +25847,7 @@
       <c r="M380" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N380" s="28" t="str">
+      <c r="N380" s="37" t="str">
         <f>VLOOKUP(M380,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -25887,7 +25896,7 @@
       <c r="M381" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N381" s="28" t="str">
+      <c r="N381" s="37" t="str">
         <f>VLOOKUP(M381,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -25936,7 +25945,7 @@
       <c r="M382" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N382" s="28" t="str">
+      <c r="N382" s="37" t="str">
         <f>VLOOKUP(M382,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -25985,7 +25994,7 @@
       <c r="M383" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N383" s="28" t="str">
+      <c r="N383" s="37" t="str">
         <f>VLOOKUP(M383,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht beurteilt</v>
       </c>
@@ -26034,7 +26043,7 @@
       <c r="M384" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N384" s="28" t="str">
+      <c r="N384" s="37" t="str">
         <f>VLOOKUP(M384,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -26089,7 +26098,7 @@
       <c r="M385" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N385" s="28" t="str">
+      <c r="N385" s="37" t="str">
         <f>VLOOKUP(M385,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -26138,7 +26147,7 @@
       <c r="M386" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N386" s="28" t="str">
+      <c r="N386" s="37" t="str">
         <f>VLOOKUP(M386,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -26193,7 +26202,7 @@
       <c r="M387" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N387" s="28" t="str">
+      <c r="N387" s="37" t="str">
         <f>VLOOKUP(M387,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -26242,7 +26251,7 @@
       <c r="M388" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N388" s="28" t="str">
+      <c r="N388" s="37" t="str">
         <f>VLOOKUP(M388,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -26291,7 +26300,7 @@
       <c r="M389" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N389" s="28" t="str">
+      <c r="N389" s="37" t="str">
         <f>VLOOKUP(M389,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -26340,7 +26349,7 @@
       <c r="M390" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N390" s="28" t="str">
+      <c r="N390" s="37" t="str">
         <f>VLOOKUP(M390,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -26389,7 +26398,7 @@
       <c r="M391" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N391" s="28" t="str">
+      <c r="N391" s="37" t="str">
         <f>VLOOKUP(M391,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -26438,7 +26447,7 @@
       <c r="M392" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N392" s="28" t="str">
+      <c r="N392" s="37" t="str">
         <f>VLOOKUP(M392,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -26493,7 +26502,7 @@
       <c r="M393" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N393" s="28" t="str">
+      <c r="N393" s="37" t="str">
         <f>VLOOKUP(M393,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -26548,7 +26557,7 @@
       <c r="M394" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N394" s="28" t="str">
+      <c r="N394" s="37" t="str">
         <f>VLOOKUP(M394,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -26597,7 +26606,7 @@
       <c r="M395" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N395" s="28" t="str">
+      <c r="N395" s="37" t="str">
         <f>VLOOKUP(M395,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -26646,7 +26655,7 @@
       <c r="M396" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N396" s="28" t="str">
+      <c r="N396" s="37" t="str">
         <f>VLOOKUP(M396,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -26695,7 +26704,7 @@
       <c r="M397" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N397" s="28" t="str">
+      <c r="N397" s="37" t="str">
         <f>VLOOKUP(M397,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -26750,7 +26759,7 @@
       <c r="M398" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N398" s="28" t="str">
+      <c r="N398" s="37" t="str">
         <f>VLOOKUP(M398,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -26805,7 +26814,7 @@
       <c r="M399" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N399" s="28" t="str">
+      <c r="N399" s="37" t="str">
         <f>VLOOKUP(M399,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -26854,7 +26863,7 @@
       <c r="M400" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N400" s="28" t="str">
+      <c r="N400" s="37" t="str">
         <f>VLOOKUP(M400,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -26909,7 +26918,7 @@
       <c r="M401" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N401" s="28" t="str">
+      <c r="N401" s="37" t="str">
         <f>VLOOKUP(M401,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -26958,7 +26967,7 @@
       <c r="M402" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N402" s="28" t="str">
+      <c r="N402" s="37" t="str">
         <f>VLOOKUP(M402,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -27013,7 +27022,7 @@
       <c r="M403" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N403" s="28" t="str">
+      <c r="N403" s="37" t="str">
         <f>VLOOKUP(M403,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -27062,7 +27071,7 @@
       <c r="M404" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N404" s="28" t="str">
+      <c r="N404" s="37" t="str">
         <f>VLOOKUP(M404,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -27111,7 +27120,7 @@
       <c r="M405" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N405" s="28" t="str">
+      <c r="N405" s="37" t="str">
         <f>VLOOKUP(M405,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -27160,7 +27169,7 @@
       <c r="M406" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N406" s="28" t="str">
+      <c r="N406" s="37" t="str">
         <f>VLOOKUP(M406,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -27209,7 +27218,7 @@
       <c r="M407" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N407" s="28" t="str">
+      <c r="N407" s="37" t="str">
         <f>VLOOKUP(M407,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -27258,7 +27267,7 @@
       <c r="M408" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N408" s="28" t="str">
+      <c r="N408" s="37" t="str">
         <f>VLOOKUP(M408,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -27313,7 +27322,7 @@
       <c r="M409" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N409" s="28" t="str">
+      <c r="N409" s="37" t="str">
         <f>VLOOKUP(M409,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -27362,7 +27371,7 @@
       <c r="M410" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N410" s="28" t="str">
+      <c r="N410" s="37" t="str">
         <f>VLOOKUP(M410,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -27417,7 +27426,7 @@
       <c r="M411" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N411" s="28" t="str">
+      <c r="N411" s="37" t="str">
         <f>VLOOKUP(M411,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -27466,7 +27475,7 @@
       <c r="M412" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N412" s="28" t="str">
+      <c r="N412" s="37" t="str">
         <f>VLOOKUP(M412,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -27515,7 +27524,7 @@
       <c r="M413" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N413" s="28" t="str">
+      <c r="N413" s="37" t="str">
         <f>VLOOKUP(M413,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -27570,7 +27579,7 @@
       <c r="M414" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N414" s="28" t="str">
+      <c r="N414" s="37" t="str">
         <f>VLOOKUP(M414,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -27619,7 +27628,7 @@
       <c r="M415" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N415" s="28" t="str">
+      <c r="N415" s="37" t="str">
         <f>VLOOKUP(M415,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht beurteilt</v>
       </c>
@@ -27668,7 +27677,7 @@
       <c r="M416" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N416" s="28" t="str">
+      <c r="N416" s="37" t="str">
         <f>VLOOKUP(M416,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht beurteilt</v>
       </c>
@@ -27717,7 +27726,7 @@
       <c r="M417" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N417" s="28" t="str">
+      <c r="N417" s="37" t="str">
         <f>VLOOKUP(M417,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -27772,7 +27781,7 @@
       <c r="M418" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N418" s="28" t="str">
+      <c r="N418" s="37" t="str">
         <f>VLOOKUP(M418,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -27821,7 +27830,7 @@
       <c r="M419" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N419" s="28" t="str">
+      <c r="N419" s="37" t="str">
         <f>VLOOKUP(M419,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -27870,7 +27879,7 @@
       <c r="M420" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N420" s="28" t="str">
+      <c r="N420" s="37" t="str">
         <f>VLOOKUP(M420,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -27925,7 +27934,7 @@
       <c r="M421" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N421" s="28" t="str">
+      <c r="N421" s="37" t="str">
         <f>VLOOKUP(M421,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -27974,7 +27983,7 @@
       <c r="M422" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N422" s="28" t="str">
+      <c r="N422" s="37" t="str">
         <f>VLOOKUP(M422,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -28023,7 +28032,7 @@
       <c r="M423" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N423" s="28" t="str">
+      <c r="N423" s="37" t="str">
         <f>VLOOKUP(M423,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -28072,7 +28081,7 @@
       <c r="M424" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N424" s="28" t="str">
+      <c r="N424" s="37" t="str">
         <f>VLOOKUP(M424,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -28127,7 +28136,7 @@
       <c r="M425" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N425" s="28" t="str">
+      <c r="N425" s="37" t="str">
         <f>VLOOKUP(M425,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -28182,7 +28191,7 @@
       <c r="M426" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N426" s="28" t="str">
+      <c r="N426" s="37" t="str">
         <f>VLOOKUP(M426,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -28231,7 +28240,7 @@
       <c r="M427" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N427" s="28" t="str">
+      <c r="N427" s="37" t="str">
         <f>VLOOKUP(M427,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -28280,7 +28289,7 @@
       <c r="M428" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N428" s="28" t="str">
+      <c r="N428" s="37" t="str">
         <f>VLOOKUP(M428,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -28329,7 +28338,7 @@
       <c r="M429" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N429" s="28" t="str">
+      <c r="N429" s="37" t="str">
         <f>VLOOKUP(M429,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -28378,7 +28387,7 @@
       <c r="M430" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N430" s="28" t="str">
+      <c r="N430" s="37" t="str">
         <f>VLOOKUP(M430,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -28427,7 +28436,7 @@
       <c r="M431" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N431" s="28" t="str">
+      <c r="N431" s="37" t="str">
         <f>VLOOKUP(M431,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -28476,7 +28485,7 @@
       <c r="M432" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N432" s="28" t="str">
+      <c r="N432" s="37" t="str">
         <f>VLOOKUP(M432,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -28525,7 +28534,7 @@
       <c r="M433" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N433" s="28" t="str">
+      <c r="N433" s="37" t="str">
         <f>VLOOKUP(M433,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -28580,7 +28589,7 @@
       <c r="M434" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N434" s="28" t="str">
+      <c r="N434" s="37" t="str">
         <f>VLOOKUP(M434,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -28629,7 +28638,7 @@
       <c r="M435" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N435" s="28" t="str">
+      <c r="N435" s="37" t="str">
         <f>VLOOKUP(M435,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -28678,7 +28687,7 @@
       <c r="M436" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N436" s="28" t="str">
+      <c r="N436" s="37" t="str">
         <f>VLOOKUP(M436,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -28727,7 +28736,7 @@
       <c r="M437" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N437" s="28" t="str">
+      <c r="N437" s="37" t="str">
         <f>VLOOKUP(M437,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -28776,7 +28785,7 @@
       <c r="M438" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N438" s="28" t="str">
+      <c r="N438" s="37" t="str">
         <f>VLOOKUP(M438,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -28831,7 +28840,7 @@
       <c r="M439" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N439" s="28" t="str">
+      <c r="N439" s="37" t="str">
         <f>VLOOKUP(M439,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -28880,7 +28889,7 @@
       <c r="M440" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N440" s="28" t="str">
+      <c r="N440" s="37" t="str">
         <f>VLOOKUP(M440,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -28929,7 +28938,7 @@
       <c r="M441" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N441" s="28" t="str">
+      <c r="N441" s="37" t="str">
         <f>VLOOKUP(M441,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -28978,7 +28987,7 @@
       <c r="M442" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N442" s="28" t="str">
+      <c r="N442" s="37" t="str">
         <f>VLOOKUP(M442,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -29033,7 +29042,7 @@
       <c r="M443" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N443" s="28" t="str">
+      <c r="N443" s="37" t="str">
         <f>VLOOKUP(M443,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -29082,7 +29091,7 @@
       <c r="M444" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N444" s="28" t="str">
+      <c r="N444" s="37" t="str">
         <f>VLOOKUP(M444,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -29131,7 +29140,7 @@
       <c r="M445" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N445" s="28" t="str">
+      <c r="N445" s="37" t="str">
         <f>VLOOKUP(M445,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -29180,7 +29189,7 @@
       <c r="M446" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N446" s="28" t="str">
+      <c r="N446" s="37" t="str">
         <f>VLOOKUP(M446,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -29235,7 +29244,7 @@
       <c r="M447" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N447" s="28" t="str">
+      <c r="N447" s="37" t="str">
         <f>VLOOKUP(M447,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -29284,7 +29293,7 @@
       <c r="M448" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N448" s="28" t="str">
+      <c r="N448" s="37" t="str">
         <f>VLOOKUP(M448,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -29339,7 +29348,7 @@
       <c r="M449" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N449" s="28" t="str">
+      <c r="N449" s="37" t="str">
         <f>VLOOKUP(M449,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -29394,7 +29403,7 @@
       <c r="M450" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N450" s="28" t="str">
+      <c r="N450" s="37" t="str">
         <f>VLOOKUP(M450,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -29449,7 +29458,7 @@
       <c r="M451" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N451" s="28" t="str">
+      <c r="N451" s="37" t="str">
         <f>VLOOKUP(M451,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -29498,7 +29507,7 @@
       <c r="M452" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N452" s="28" t="str">
+      <c r="N452" s="37" t="str">
         <f>VLOOKUP(M452,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -29547,7 +29556,7 @@
       <c r="M453" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N453" s="28" t="str">
+      <c r="N453" s="37" t="str">
         <f>VLOOKUP(M453,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -29596,7 +29605,7 @@
       <c r="M454" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N454" s="28" t="str">
+      <c r="N454" s="37" t="str">
         <f>VLOOKUP(M454,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -29645,7 +29654,7 @@
       <c r="M455" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N455" s="28" t="str">
+      <c r="N455" s="37" t="str">
         <f>VLOOKUP(M455,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -29694,7 +29703,7 @@
       <c r="M456" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N456" s="28" t="str">
+      <c r="N456" s="37" t="str">
         <f>VLOOKUP(M456,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -29749,7 +29758,7 @@
       <c r="M457" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N457" s="28" t="str">
+      <c r="N457" s="37" t="str">
         <f>VLOOKUP(M457,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -29804,7 +29813,7 @@
       <c r="M458" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N458" s="28" t="str">
+      <c r="N458" s="37" t="str">
         <f>VLOOKUP(M458,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -29853,7 +29862,7 @@
       <c r="M459" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N459" s="28" t="str">
+      <c r="N459" s="37" t="str">
         <f>VLOOKUP(M459,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -29908,7 +29917,7 @@
       <c r="M460" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N460" s="28" t="str">
+      <c r="N460" s="37" t="str">
         <f>VLOOKUP(M460,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -29963,7 +29972,7 @@
       <c r="M461" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N461" s="28" t="str">
+      <c r="N461" s="37" t="str">
         <f>VLOOKUP(M461,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -30018,7 +30027,7 @@
       <c r="M462" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N462" s="28" t="str">
+      <c r="N462" s="37" t="str">
         <f>VLOOKUP(M462,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -30073,7 +30082,7 @@
       <c r="M463" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N463" s="28" t="str">
+      <c r="N463" s="37" t="str">
         <f>VLOOKUP(M463,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -30122,7 +30131,7 @@
       <c r="M464" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N464" s="28" t="str">
+      <c r="N464" s="37" t="str">
         <f>VLOOKUP(M464,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -30171,7 +30180,7 @@
       <c r="M465" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N465" s="28" t="str">
+      <c r="N465" s="37" t="str">
         <f>VLOOKUP(M465,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -30226,7 +30235,7 @@
       <c r="M466" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N466" s="28" t="str">
+      <c r="N466" s="37" t="str">
         <f>VLOOKUP(M466,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -30281,7 +30290,7 @@
       <c r="M467" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N467" s="28" t="str">
+      <c r="N467" s="37" t="str">
         <f>VLOOKUP(M467,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -30330,7 +30339,7 @@
       <c r="M468" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N468" s="28" t="str">
+      <c r="N468" s="37" t="str">
         <f>VLOOKUP(M468,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -30379,7 +30388,7 @@
       <c r="M469" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N469" s="28" t="str">
+      <c r="N469" s="37" t="str">
         <f>VLOOKUP(M469,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -30428,7 +30437,7 @@
       <c r="M470" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N470" s="28" t="str">
+      <c r="N470" s="37" t="str">
         <f>VLOOKUP(M470,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -30477,7 +30486,7 @@
       <c r="M471" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N471" s="28" t="str">
+      <c r="N471" s="37" t="str">
         <f>VLOOKUP(M471,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -30532,7 +30541,7 @@
       <c r="M472" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N472" s="28" t="str">
+      <c r="N472" s="37" t="str">
         <f>VLOOKUP(M472,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -30581,7 +30590,7 @@
       <c r="M473" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N473" s="28" t="str">
+      <c r="N473" s="37" t="str">
         <f>VLOOKUP(M473,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -30630,7 +30639,7 @@
       <c r="M474" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N474" s="28" t="str">
+      <c r="N474" s="37" t="str">
         <f>VLOOKUP(M474,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -30679,7 +30688,7 @@
       <c r="M475" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N475" s="28" t="str">
+      <c r="N475" s="37" t="str">
         <f>VLOOKUP(M475,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -30728,7 +30737,7 @@
       <c r="M476" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N476" s="28" t="str">
+      <c r="N476" s="37" t="str">
         <f>VLOOKUP(M476,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -30777,7 +30786,7 @@
       <c r="M477" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N477" s="28" t="str">
+      <c r="N477" s="37" t="str">
         <f>VLOOKUP(M477,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -30832,7 +30841,7 @@
       <c r="M478" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N478" s="28" t="str">
+      <c r="N478" s="37" t="str">
         <f>VLOOKUP(M478,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -30887,7 +30896,7 @@
       <c r="M479" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N479" s="28" t="str">
+      <c r="N479" s="37" t="str">
         <f>VLOOKUP(M479,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -30936,7 +30945,7 @@
       <c r="M480" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N480" s="28" t="str">
+      <c r="N480" s="37" t="str">
         <f>VLOOKUP(M480,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -30991,7 +31000,7 @@
       <c r="M481" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N481" s="28" t="str">
+      <c r="N481" s="37" t="str">
         <f>VLOOKUP(M481,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -31046,7 +31055,7 @@
       <c r="M482" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N482" s="28" t="str">
+      <c r="N482" s="37" t="str">
         <f>VLOOKUP(M482,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -31095,7 +31104,7 @@
       <c r="M483" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N483" s="28" t="str">
+      <c r="N483" s="37" t="str">
         <f>VLOOKUP(M483,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -31144,7 +31153,7 @@
       <c r="M484" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N484" s="28" t="str">
+      <c r="N484" s="37" t="str">
         <f>VLOOKUP(M484,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -31193,7 +31202,7 @@
       <c r="M485" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N485" s="28" t="str">
+      <c r="N485" s="37" t="str">
         <f>VLOOKUP(M485,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -31242,7 +31251,7 @@
       <c r="M486" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N486" s="28" t="str">
+      <c r="N486" s="37" t="str">
         <f>VLOOKUP(M486,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -31291,7 +31300,7 @@
       <c r="M487" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N487" s="28" t="str">
+      <c r="N487" s="37" t="str">
         <f>VLOOKUP(M487,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -31346,7 +31355,7 @@
       <c r="M488" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N488" s="28" t="str">
+      <c r="N488" s="37" t="str">
         <f>VLOOKUP(M488,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -31401,7 +31410,7 @@
       <c r="M489" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N489" s="28" t="str">
+      <c r="N489" s="37" t="str">
         <f>VLOOKUP(M489,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Ungenügende Datengrundlage</v>
       </c>
@@ -31450,7 +31459,7 @@
       <c r="M490" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N490" s="28" t="str">
+      <c r="N490" s="37" t="str">
         <f>VLOOKUP(M490,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -31499,7 +31508,7 @@
       <c r="M491" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N491" s="28" t="str">
+      <c r="N491" s="37" t="str">
         <f>VLOOKUP(M491,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -31554,7 +31563,7 @@
       <c r="M492" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N492" s="28" t="str">
+      <c r="N492" s="37" t="str">
         <f>VLOOKUP(M492,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -31609,7 +31618,7 @@
       <c r="M493" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N493" s="28" t="str">
+      <c r="N493" s="37" t="str">
         <f>VLOOKUP(M493,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -31664,7 +31673,7 @@
       <c r="M494" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N494" s="28" t="str">
+      <c r="N494" s="37" t="str">
         <f>VLOOKUP(M494,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -31719,7 +31728,7 @@
       <c r="M495" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N495" s="28" t="str">
+      <c r="N495" s="37" t="str">
         <f>VLOOKUP(M495,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Potenziell gefährdet</v>
       </c>
@@ -31768,7 +31777,7 @@
       <c r="M496" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N496" s="28" t="str">
+      <c r="N496" s="37" t="str">
         <f>VLOOKUP(M496,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -31823,7 +31832,7 @@
       <c r="M497" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N497" s="28" t="str">
+      <c r="N497" s="37" t="str">
         <f>VLOOKUP(M497,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -31872,7 +31881,7 @@
       <c r="M498" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N498" s="28" t="str">
+      <c r="N498" s="37" t="str">
         <f>VLOOKUP(M498,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -31921,7 +31930,7 @@
       <c r="M499" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N499" s="28" t="str">
+      <c r="N499" s="37" t="str">
         <f>VLOOKUP(M499,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -31976,7 +31985,7 @@
       <c r="M500" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N500" s="28" t="str">
+      <c r="N500" s="37" t="str">
         <f>VLOOKUP(M500,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -32031,7 +32040,7 @@
       <c r="M501" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N501" s="28" t="str">
+      <c r="N501" s="37" t="str">
         <f>VLOOKUP(M501,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -32086,7 +32095,7 @@
       <c r="M502" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N502" s="28" t="str">
+      <c r="N502" s="37" t="str">
         <f>VLOOKUP(M502,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -32141,7 +32150,7 @@
       <c r="M503" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N503" s="28" t="str">
+      <c r="N503" s="37" t="str">
         <f>VLOOKUP(M503,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -32190,7 +32199,7 @@
       <c r="M504" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N504" s="28" t="str">
+      <c r="N504" s="37" t="str">
         <f>VLOOKUP(M504,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Vom Aussterben bedroht</v>
       </c>
@@ -32245,7 +32254,7 @@
       <c r="M505" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N505" s="28" t="str">
+      <c r="N505" s="37" t="str">
         <f>VLOOKUP(M505,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Nicht gefährdet</v>
       </c>
@@ -32294,7 +32303,7 @@
       <c r="M506" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N506" s="28" t="str">
+      <c r="N506" s="37" t="str">
         <f>VLOOKUP(M506,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Stark gefährdet</v>
       </c>
@@ -32343,7 +32352,7 @@
       <c r="M507" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N507" s="28" t="str">
+      <c r="N507" s="37" t="str">
         <f>VLOOKUP(M507,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>In der Schweiz ausgestorben</v>
       </c>
@@ -32398,7 +32407,7 @@
       <c r="M508" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N508" s="28" t="str">
+      <c r="N508" s="37" t="str">
         <f>VLOOKUP(M508,Legend!$A$9:$B$16,2,FALSE)</f>
         <v>Verletzlich</v>
       </c>
@@ -32431,7 +32440,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="11.4"/>
